--- a/Instances/K5014255_NonStationary_b2_fe25_el_rk25_ll1_l20_HTrue_c0.xlsx
+++ b/Instances/K5014255_NonStationary_b2_fe25_el_rk25_ll1_l20_HTrue_c0.xlsx
@@ -1004,7 +1004,7 @@
         <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>19.90640538930893</v>
+        <v>21.12998324632645</v>
       </c>
       <c r="I2" t="n">
         <v>272</v>
@@ -1427,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17.625</v>
+        <v>19.5</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22.265625</v>
+        <v>21.09375</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.392578125</v>
+        <v>31.1279296875</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23.47705078125</v>
+        <v>29.221435546875</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25.99365234375</v>
+        <v>24.993896484375</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>25.9984130859375</v>
+        <v>27.74830627441406</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>22.24966049194336</v>
+        <v>25.99960327148438</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>23.49991035461426</v>
+        <v>25.99990081787109</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>26.74997448921204</v>
+        <v>24.24997687339783</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>

--- a/Instances/K5014255_NonStationary_b2_fe25_el_rk25_ll1_l20_HTrue_c0.xlsx
+++ b/Instances/K5014255_NonStationary_b2_fe25_el_rk25_ll1_l20_HTrue_c0.xlsx
@@ -1004,7 +1004,7 @@
         <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>21.12998324632645</v>
+        <v>19.99922627210617</v>
       </c>
       <c r="I2" t="n">
         <v>272</v>
@@ -1427,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.5</v>
+        <v>19.6875</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21.09375</v>
+        <v>25.078125</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23.625</v>
+        <v>24.85546875</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>31.1279296875</v>
+        <v>25.6494140625</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29.221435546875</v>
+        <v>22.228271484375</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.993896484375</v>
+        <v>25.24383544921875</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.74830627441406</v>
+        <v>22.49862670898438</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>25.99960327148438</v>
+        <v>26.99958801269531</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>25.99990081787109</v>
+        <v>23.99990844726562</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>24.24997687339783</v>
+        <v>23.74997735023499</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
